--- a/automacoestemp.xlsx
+++ b/automacoestemp.xlsx
@@ -390,20 +390,14 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-    <row r="5"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/automacoestemp.xlsx
+++ b/automacoestemp.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="162913" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -51,7 +51,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -128,10 +128,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -158,82 +158,82 @@
         <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Times New Roman" script="Arab"/>
+        <a:font typeface="Times New Roman" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="MoolBoran" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Times New Roman" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font typeface="ＭＳ Ｐゴシック" script="Jpan"/>
+        <a:font typeface="맑은 고딕" script="Hang"/>
+        <a:font typeface="宋体" script="Hans"/>
+        <a:font typeface="新細明體" script="Hant"/>
+        <a:font typeface="Arial" script="Arab"/>
+        <a:font typeface="Arial" script="Hebr"/>
+        <a:font typeface="Tahoma" script="Thai"/>
+        <a:font typeface="Nyala" script="Ethi"/>
+        <a:font typeface="Vrinda" script="Beng"/>
+        <a:font typeface="Shruti" script="Gujr"/>
+        <a:font typeface="DaunPenh" script="Khmr"/>
+        <a:font typeface="Tunga" script="Knda"/>
+        <a:font typeface="Raavi" script="Guru"/>
+        <a:font typeface="Euphemia" script="Cans"/>
+        <a:font typeface="Plantagenet Cherokee" script="Cher"/>
+        <a:font typeface="Microsoft Yi Baiti" script="Yiii"/>
+        <a:font typeface="Microsoft Himalaya" script="Tibt"/>
+        <a:font typeface="MV Boli" script="Thaa"/>
+        <a:font typeface="Mangal" script="Deva"/>
+        <a:font typeface="Gautami" script="Telu"/>
+        <a:font typeface="Latha" script="Taml"/>
+        <a:font typeface="Estrangelo Edessa" script="Syrc"/>
+        <a:font typeface="Kalinga" script="Orya"/>
+        <a:font typeface="Kartika" script="Mlym"/>
+        <a:font typeface="DokChampa" script="Laoo"/>
+        <a:font typeface="Iskoola Pota" script="Sinh"/>
+        <a:font typeface="Mongolian Baiti" script="Mong"/>
+        <a:font typeface="Arial" script="Viet"/>
+        <a:font typeface="Microsoft Uighur" script="Uigh"/>
+        <a:font typeface="Sylfaen" script="Geor"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -245,159 +245,186 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
+                <a:tint val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
                 <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin scaled="1" ang="16200000"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="9525">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="9500"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="25400">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cmpd="sng" cap="flat" w="38100">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw dir="5400000" rotWithShape="0" dist="23000" blurRad="40000">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot rev="0" lon="0" lat="0"/>
+            </a:camera>
+            <a:lightRig dir="t" rig="threePt">
+              <a:rot rev="1200000" lon="0" lat="0"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:tint val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1"/>
+    <row r="2"/>
+    <row r="3"/>
+    <row r="4"/>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/automacoestemp.xlsx
+++ b/automacoestemp.xlsx
@@ -412,19 +412,14 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1"/>
-    <row r="2"/>
-    <row r="3"/>
-    <row r="4"/>
-  </sheetData>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>